--- a/Backend/data/data.xlsx
+++ b/Backend/data/data.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\team phoneix\Documents\GitHub\Sara\Backend\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="City"/>
-    <sheet r:id="rId2" sheetId="2" name="Events"/>
-    <sheet r:id="rId3" sheetId="3" name="Activities"/>
-    <sheet r:id="rId4" sheetId="4" name="Place"/>
-    <sheet r:id="rId5" sheetId="5" name="Accommodation"/>
+    <sheet name="City" sheetId="1" r:id="rId1"/>
+    <sheet name="Events" sheetId="2" r:id="rId2"/>
+    <sheet name="Activities" sheetId="3" r:id="rId3"/>
+    <sheet name="Place" sheetId="4" r:id="rId4"/>
+    <sheet name="Accommodation" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="472">
   <si>
     <t>id</t>
   </si>
@@ -1431,13 +1436,15 @@
   </si>
   <si>
     <t>Tilicho is a high-altitude lake situated in the Annapurna region of Nepal, known for its stunning natural beauty and challenging trekking routes. Located at an elevation of 4,919 meters, Tilicho Lake is one of the highest lakes in the world. The trek to Tilicho Lake offers spectacular views of the surrounding mountains and glaciers, making it a popular destination for adventurous trekkers seeking a rewarding challenge.</t>
+  </si>
+  <si>
+    <t>theme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1481,52 +1488,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1537,10 +1543,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1578,71 +1584,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1670,7 +1676,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1693,11 +1699,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1706,13 +1712,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1722,7 +1728,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1731,7 +1737,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1740,7 +1746,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1748,10 +1754,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1826,18 +1832,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="48.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1866,7 +1872,7 @@
         <v>412</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1889,13 +1895,13 @@
         <v>415</v>
       </c>
       <c r="H2" s="6">
-        <v>85.324</v>
+        <v>85.323999999999998</v>
       </c>
       <c r="I2" s="6">
-        <v>27.7172</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+        <v>27.717199999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1906,7 +1912,7 @@
         <v>417</v>
       </c>
       <c r="D3" s="6">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1918,13 +1924,13 @@
         <v>418</v>
       </c>
       <c r="H3" s="6">
-        <v>83.9856</v>
+        <v>83.985600000000005</v>
       </c>
       <c r="I3" s="6">
-        <v>28.2096</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+        <v>28.209599999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1947,13 +1953,13 @@
         <v>421</v>
       </c>
       <c r="H4" s="6">
-        <v>84.4794</v>
+        <v>84.479399999999998</v>
       </c>
       <c r="I4" s="6">
         <v>27.5291</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1976,13 +1982,13 @@
         <v>423</v>
       </c>
       <c r="H5" s="6">
-        <v>83.275</v>
+        <v>83.275000000000006</v>
       </c>
       <c r="I5" s="6">
-        <v>27.6792</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+        <v>27.679200000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2005,13 +2011,13 @@
         <v>425</v>
       </c>
       <c r="H6" s="6">
-        <v>85.5205</v>
+        <v>85.520499999999998</v>
       </c>
       <c r="I6" s="6">
-        <v>27.7174</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+        <v>27.717400000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2034,13 +2040,13 @@
         <v>428</v>
       </c>
       <c r="H7" s="6">
-        <v>85.922</v>
+        <v>85.921999999999997</v>
       </c>
       <c r="I7" s="6">
         <v>26.7287</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2063,13 +2069,13 @@
         <v>431</v>
       </c>
       <c r="H8" s="6">
-        <v>84.5694</v>
+        <v>84.569400000000002</v>
       </c>
       <c r="I8" s="6">
-        <v>27.8943</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+        <v>27.894300000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2095,10 +2101,10 @@
         <v>85.4131</v>
       </c>
       <c r="I9" s="6">
-        <v>28.082</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+        <v>28.082000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2109,7 +2115,7 @@
         <v>434</v>
       </c>
       <c r="D10" s="6">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -2121,13 +2127,13 @@
         <v>435</v>
       </c>
       <c r="H10" s="6">
-        <v>83.8203</v>
+        <v>83.820300000000003</v>
       </c>
       <c r="I10" s="6">
         <v>28.53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2138,7 +2144,7 @@
         <v>437</v>
       </c>
       <c r="D11" s="6">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -2153,10 +2159,10 @@
         <v>83.8767</v>
       </c>
       <c r="I11" s="6">
-        <v>29.1763</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+        <v>29.176300000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2179,13 +2185,13 @@
         <v>441</v>
       </c>
       <c r="H12" s="6">
-        <v>82.1222</v>
+        <v>82.122200000000007</v>
       </c>
       <c r="I12" s="6">
         <v>29.5442</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2208,13 +2214,13 @@
         <v>444</v>
       </c>
       <c r="H13" s="6">
-        <v>86.7106</v>
+        <v>86.710599999999999</v>
       </c>
       <c r="I13" s="6">
-        <v>27.9278</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+        <v>27.927800000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2240,10 +2246,10 @@
         <v>84.25</v>
       </c>
       <c r="I14" s="6">
-        <v>27.9333</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+        <v>27.933299999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2266,13 +2272,13 @@
         <v>448</v>
       </c>
       <c r="H15" s="6">
-        <v>87.926</v>
+        <v>87.926000000000002</v>
       </c>
       <c r="I15" s="6">
-        <v>26.9106</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+        <v>26.910599999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2295,13 +2301,13 @@
         <v>450</v>
       </c>
       <c r="H16" s="6">
-        <v>85.5631</v>
+        <v>85.563100000000006</v>
       </c>
       <c r="I16" s="6">
-        <v>27.6223</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+        <v>27.622299999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2324,13 +2330,13 @@
         <v>453</v>
       </c>
       <c r="H17" s="6">
-        <v>84.6331</v>
+        <v>84.633099999999999</v>
       </c>
       <c r="I17" s="6">
-        <v>28.0207</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+        <v>28.020700000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2353,13 +2359,13 @@
         <v>456</v>
       </c>
       <c r="H18" s="6">
-        <v>87.0059</v>
+        <v>87.005899999999997</v>
       </c>
       <c r="I18" s="6">
-        <v>26.6412</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+        <v>26.641200000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2382,13 +2388,13 @@
         <v>459</v>
       </c>
       <c r="H19" s="6">
-        <v>81.0833</v>
+        <v>81.083299999999994</v>
       </c>
       <c r="I19" s="6">
-        <v>28.3833</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+        <v>28.383299999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2411,13 +2417,13 @@
         <v>462</v>
       </c>
       <c r="H20" s="6">
-        <v>86.7212</v>
+        <v>86.721199999999996</v>
       </c>
       <c r="I20" s="6">
         <v>27.6861</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2440,13 +2446,13 @@
         <v>464</v>
       </c>
       <c r="H21" s="6">
-        <v>83.8116</v>
+        <v>83.811599999999999</v>
       </c>
       <c r="I21" s="6">
         <v>28.3994</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2469,13 +2475,13 @@
         <v>467</v>
       </c>
       <c r="H22" s="6">
-        <v>83.5404</v>
+        <v>83.540400000000005</v>
       </c>
       <c r="I22" s="6">
         <v>27.8703</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2501,10 +2507,10 @@
         <v>83.8108</v>
       </c>
       <c r="I23" s="6">
-        <v>28.6903</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+        <v>28.690300000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2515,7 +2521,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2526,7 +2532,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2537,7 +2543,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2548,7 +2554,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2559,7 +2565,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2570,7 +2576,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2581,7 +2587,7 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2592,7 +2598,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2603,7 +2609,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2614,7 +2620,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2625,7 +2631,7 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2636,7 +2642,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row r="36" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2647,7 +2653,7 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row r="37" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2658,7 +2664,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row r="38" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2669,7 +2675,7 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    <row r="39" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2680,7 +2686,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    <row r="40" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2707,15 +2713,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2735,7 +2741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2752,10 +2758,10 @@
         <v>358</v>
       </c>
       <c r="F2" s="8">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2775,7 +2781,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2792,10 +2798,10 @@
         <v>366</v>
       </c>
       <c r="F4" s="8">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2812,10 +2818,10 @@
         <v>370</v>
       </c>
       <c r="F5" s="8">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2835,7 +2841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2855,7 +2861,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>12</v>
       </c>
@@ -2875,7 +2881,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>13</v>
       </c>
@@ -2895,7 +2901,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2915,7 +2921,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2955,7 +2961,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -2975,7 +2981,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>7</v>
       </c>
@@ -2995,7 +3001,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row r="16" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3035,7 +3041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3055,7 +3061,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row r="18" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3075,7 +3081,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row r="19" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3092,10 +3098,10 @@
         <v>408</v>
       </c>
       <c r="F19" s="8">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3103,7 +3109,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row r="21" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3111,7 +3117,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3119,7 +3125,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3127,7 +3133,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row r="24" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3147,18 +3153,18 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="29.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3175,7 +3181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3192,7 +3198,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3209,7 +3215,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3226,7 +3232,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3243,7 +3249,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3260,7 +3266,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3277,7 +3283,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3291,10 +3297,10 @@
         <v>302</v>
       </c>
       <c r="E8" s="8">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3311,7 +3317,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3328,7 +3334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3345,7 +3351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row r="12" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3359,10 +3365,10 @@
         <v>312</v>
       </c>
       <c r="E12" s="8">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3376,10 +3382,10 @@
         <v>313</v>
       </c>
       <c r="E13" s="8">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3396,7 +3402,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row r="15" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3413,7 +3419,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row r="16" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3430,7 +3436,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row r="17" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3447,7 +3453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row r="18" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3461,10 +3467,10 @@
         <v>324</v>
       </c>
       <c r="E18" s="8">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3481,7 +3487,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row r="20" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3495,10 +3501,10 @@
         <v>328</v>
       </c>
       <c r="E20" s="8">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3515,7 +3521,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row r="22" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3532,7 +3538,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row r="23" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3549,7 +3555,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row r="24" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3566,7 +3572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row r="25" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -3583,7 +3589,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row r="26" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3600,7 +3606,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row r="27" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3617,7 +3623,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row r="28" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3631,10 +3637,10 @@
         <v>344</v>
       </c>
       <c r="E28" s="8">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3648,10 +3654,10 @@
         <v>345</v>
       </c>
       <c r="E29" s="8">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3668,7 +3674,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row r="31" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3685,7 +3691,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row r="32" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3702,7 +3708,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row r="33" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3716,7 +3722,7 @@
         <v>353</v>
       </c>
       <c r="E33" s="8">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -3731,35 +3737,33 @@
   </sheetPr>
   <dimension ref="A1:V215"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="41.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="29.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="50.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3776,7 +3780,7 @@
         <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>471</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>51</v>
@@ -3807,7 +3811,7 @@
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3830,10 +3834,10 @@
         <v>60</v>
       </c>
       <c r="H2" s="6">
-        <v>85.359</v>
+        <v>85.358999999999995</v>
       </c>
       <c r="I2" s="6">
-        <v>27.6975</v>
+        <v>27.697500000000002</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -3855,7 +3859,7 @@
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3878,7 +3882,7 @@
         <v>65</v>
       </c>
       <c r="H3" s="6">
-        <v>85.2906</v>
+        <v>85.290599999999998</v>
       </c>
       <c r="I3" s="6">
         <v>27.7149</v>
@@ -3903,7 +3907,7 @@
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row r="4" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3926,10 +3930,10 @@
         <v>70</v>
       </c>
       <c r="H4" s="6">
-        <v>85.3365</v>
+        <v>85.336500000000001</v>
       </c>
       <c r="I4" s="6">
-        <v>27.7101</v>
+        <v>27.710100000000001</v>
       </c>
       <c r="J4" s="6">
         <v>2</v>
@@ -3951,7 +3955,7 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row r="5" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3974,10 +3978,10 @@
         <v>74</v>
       </c>
       <c r="H5" s="6">
-        <v>85.3622</v>
+        <v>85.362200000000001</v>
       </c>
       <c r="I5" s="6">
-        <v>27.7215</v>
+        <v>27.721499999999999</v>
       </c>
       <c r="J5" s="6">
         <v>2</v>
@@ -3999,7 +4003,7 @@
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row r="6" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4022,7 +4026,7 @@
         <v>79</v>
       </c>
       <c r="H6" s="6">
-        <v>85.3069</v>
+        <v>85.306899999999999</v>
       </c>
       <c r="I6" s="6">
         <v>27.7044</v>
@@ -4047,7 +4051,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row r="7" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4070,10 +4074,10 @@
         <v>84</v>
       </c>
       <c r="H7" s="6">
-        <v>85.3149</v>
+        <v>85.314899999999994</v>
       </c>
       <c r="I7" s="6">
-        <v>27.7152</v>
+        <v>27.715199999999999</v>
       </c>
       <c r="J7" s="6">
         <v>4</v>
@@ -4095,7 +4099,7 @@
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row r="8" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4118,10 +4122,10 @@
         <v>89</v>
       </c>
       <c r="H8" s="6">
-        <v>85.3152</v>
+        <v>85.315200000000004</v>
       </c>
       <c r="I8" s="6">
-        <v>27.7138</v>
+        <v>27.713799999999999</v>
       </c>
       <c r="J8" s="6">
         <v>2</v>
@@ -4143,7 +4147,7 @@
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row r="9" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4166,7 +4170,7 @@
         <v>92</v>
       </c>
       <c r="H9" s="6">
-        <v>85.3229</v>
+        <v>85.322900000000004</v>
       </c>
       <c r="I9" s="6">
         <v>27.7103</v>
@@ -4191,7 +4195,7 @@
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row r="10" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4214,10 +4218,10 @@
         <v>96</v>
       </c>
       <c r="H10" s="6">
-        <v>85.324</v>
+        <v>85.323999999999998</v>
       </c>
       <c r="I10" s="6">
-        <v>27.6727</v>
+        <v>27.672699999999999</v>
       </c>
       <c r="J10" s="6">
         <v>3</v>
@@ -4239,7 +4243,7 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row r="11" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4262,10 +4266,10 @@
         <v>100</v>
       </c>
       <c r="H11" s="6">
-        <v>85.4283</v>
+        <v>85.428299999999993</v>
       </c>
       <c r="I11" s="6">
-        <v>27.671</v>
+        <v>27.670999999999999</v>
       </c>
       <c r="J11" s="6">
         <v>3</v>
@@ -4287,7 +4291,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row r="12" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4310,7 +4314,7 @@
         <v>104</v>
       </c>
       <c r="H12" s="6">
-        <v>85.3696</v>
+        <v>85.369600000000005</v>
       </c>
       <c r="I12" s="6">
         <v>27.74</v>
@@ -4335,7 +4339,7 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row r="13" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4358,10 +4362,10 @@
         <v>108</v>
       </c>
       <c r="H13" s="6">
-        <v>85.3581</v>
+        <v>85.358099999999993</v>
       </c>
       <c r="I13" s="6">
-        <v>27.6073</v>
+        <v>27.607299999999999</v>
       </c>
       <c r="J13" s="1">
         <v>2</v>
@@ -4383,7 +4387,7 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row r="14" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4406,10 +4410,10 @@
         <v>111</v>
       </c>
       <c r="H14" s="6">
-        <v>85.2623</v>
+        <v>85.262299999999996</v>
       </c>
       <c r="I14" s="6">
-        <v>27.6549</v>
+        <v>27.654900000000001</v>
       </c>
       <c r="J14" s="1">
         <v>3</v>
@@ -4431,7 +4435,7 @@
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row r="15" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4454,7 +4458,7 @@
         <v>114</v>
       </c>
       <c r="H15" s="6">
-        <v>85.3556</v>
+        <v>85.355599999999995</v>
       </c>
       <c r="I15" s="6">
         <v>27.7149</v>
@@ -4479,7 +4483,7 @@
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row r="16" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4502,10 +4506,10 @@
         <v>117</v>
       </c>
       <c r="H16" s="6">
-        <v>85.4186</v>
+        <v>85.418599999999998</v>
       </c>
       <c r="I16" s="6">
-        <v>27.8105</v>
+        <v>27.810500000000001</v>
       </c>
       <c r="J16" s="1">
         <v>6</v>
@@ -4527,7 +4531,7 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row r="17" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4550,10 +4554,10 @@
         <v>120</v>
       </c>
       <c r="H17" s="6">
-        <v>85.2394</v>
+        <v>85.239400000000003</v>
       </c>
       <c r="I17" s="6">
-        <v>27.5765</v>
+        <v>27.576499999999999</v>
       </c>
       <c r="J17" s="1">
         <v>5</v>
@@ -4575,7 +4579,7 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row r="18" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4598,10 +4602,10 @@
         <v>123</v>
       </c>
       <c r="H18" s="6">
-        <v>85.2573</v>
+        <v>85.257300000000001</v>
       </c>
       <c r="I18" s="6">
-        <v>27.6485</v>
+        <v>27.648499999999999</v>
       </c>
       <c r="J18" s="1">
         <v>6</v>
@@ -4623,7 +4627,7 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row r="19" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4646,7 +4650,7 @@
         <v>126</v>
       </c>
       <c r="H19" s="6">
-        <v>85.2927</v>
+        <v>85.292699999999996</v>
       </c>
       <c r="I19" s="6">
         <v>27.5867</v>
@@ -4671,7 +4675,7 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row r="20" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4694,10 +4698,10 @@
         <v>129</v>
       </c>
       <c r="H20" s="6">
-        <v>83.951</v>
+        <v>83.950999999999993</v>
       </c>
       <c r="I20" s="6">
-        <v>28.2096</v>
+        <v>28.209599999999998</v>
       </c>
       <c r="J20" s="1">
         <v>3</v>
@@ -4719,7 +4723,7 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row r="21" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4742,10 +4746,10 @@
         <v>132</v>
       </c>
       <c r="H21" s="6">
-        <v>83.9344</v>
+        <v>83.934399999999997</v>
       </c>
       <c r="I21" s="6">
-        <v>28.2097</v>
+        <v>28.209700000000002</v>
       </c>
       <c r="J21" s="1">
         <v>5</v>
@@ -4767,7 +4771,7 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row r="22" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4790,10 +4794,10 @@
         <v>135</v>
       </c>
       <c r="H22" s="6">
-        <v>83.9514</v>
+        <v>83.951400000000007</v>
       </c>
       <c r="I22" s="6">
-        <v>28.2647</v>
+        <v>28.264700000000001</v>
       </c>
       <c r="J22" s="1">
         <v>5</v>
@@ -4815,7 +4819,7 @@
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row r="23" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4838,10 +4842,10 @@
         <v>138</v>
       </c>
       <c r="H23" s="6">
-        <v>83.9585</v>
+        <v>83.958500000000001</v>
       </c>
       <c r="I23" s="6">
-        <v>28.2458</v>
+        <v>28.245799999999999</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4863,7 +4867,7 @@
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row r="24" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4886,10 +4890,10 @@
         <v>141</v>
       </c>
       <c r="H24" s="6">
-        <v>83.9582</v>
+        <v>83.958200000000005</v>
       </c>
       <c r="I24" s="6">
-        <v>28.2448</v>
+        <v>28.244800000000001</v>
       </c>
       <c r="J24" s="6">
         <v>1.5</v>
@@ -4911,7 +4915,7 @@
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row r="25" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4937,7 +4941,7 @@
         <v>83.9773</v>
       </c>
       <c r="I25" s="6">
-        <v>28.2474</v>
+        <v>28.247399999999999</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -4959,7 +4963,7 @@
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row r="26" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4982,10 +4986,10 @@
         <v>146</v>
       </c>
       <c r="H26" s="6">
-        <v>83.9797</v>
+        <v>83.979699999999994</v>
       </c>
       <c r="I26" s="6">
-        <v>28.2828</v>
+        <v>28.282800000000002</v>
       </c>
       <c r="J26" s="6">
         <v>1.5</v>
@@ -5007,7 +5011,7 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row r="27" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5030,10 +5034,10 @@
         <v>149</v>
       </c>
       <c r="H27" s="6">
-        <v>83.9506</v>
+        <v>83.950599999999994</v>
       </c>
       <c r="I27" s="6">
-        <v>28.2096</v>
+        <v>28.209599999999998</v>
       </c>
       <c r="J27" s="6">
         <v>2.5</v>
@@ -5055,7 +5059,7 @@
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row r="28" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5078,10 +5082,10 @@
         <v>151</v>
       </c>
       <c r="H28" s="6">
-        <v>83.9624</v>
+        <v>83.962400000000002</v>
       </c>
       <c r="I28" s="6">
-        <v>28.2138</v>
+        <v>28.213799999999999</v>
       </c>
       <c r="J28" s="6">
         <v>2.5</v>
@@ -5103,7 +5107,7 @@
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row r="29" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5126,10 +5130,10 @@
         <v>154</v>
       </c>
       <c r="H29" s="6">
-        <v>83.9749</v>
+        <v>83.974900000000005</v>
       </c>
       <c r="I29" s="6">
-        <v>28.2326</v>
+        <v>28.232600000000001</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -5151,7 +5155,7 @@
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row r="30" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5174,10 +5178,10 @@
         <v>156</v>
       </c>
       <c r="H30" s="6">
-        <v>84.0915</v>
+        <v>84.091499999999996</v>
       </c>
       <c r="I30" s="6">
-        <v>28.1746</v>
+        <v>28.174600000000002</v>
       </c>
       <c r="J30" s="1">
         <v>3</v>
@@ -5199,7 +5203,7 @@
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row r="31" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5222,10 +5226,10 @@
         <v>159</v>
       </c>
       <c r="H31" s="6">
-        <v>84.0615</v>
+        <v>84.061499999999995</v>
       </c>
       <c r="I31" s="6">
-        <v>28.1963</v>
+        <v>28.196300000000001</v>
       </c>
       <c r="J31" s="1">
         <v>3</v>
@@ -5247,7 +5251,7 @@
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row r="32" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5270,10 +5274,10 @@
         <v>162</v>
       </c>
       <c r="H32" s="6">
-        <v>83.8351</v>
+        <v>83.835099999999997</v>
       </c>
       <c r="I32" s="6">
-        <v>28.223</v>
+        <v>28.222999999999999</v>
       </c>
       <c r="J32" s="1">
         <v>4</v>
@@ -5295,7 +5299,7 @@
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row r="33" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5318,10 +5322,10 @@
         <v>165</v>
       </c>
       <c r="H33" s="6">
-        <v>84.0523</v>
+        <v>84.052300000000002</v>
       </c>
       <c r="I33" s="6">
-        <v>28.2245</v>
+        <v>28.224499999999999</v>
       </c>
       <c r="J33" s="1">
         <v>2</v>
@@ -5343,7 +5347,7 @@
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row r="34" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5366,10 +5370,10 @@
         <v>169</v>
       </c>
       <c r="H34" s="6">
-        <v>84.4412</v>
+        <v>84.441199999999995</v>
       </c>
       <c r="I34" s="6">
-        <v>27.5341</v>
+        <v>27.534099999999999</v>
       </c>
       <c r="J34" s="1">
         <v>6</v>
@@ -5391,7 +5395,7 @@
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row r="35" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5414,10 +5418,10 @@
         <v>172</v>
       </c>
       <c r="H35" s="6">
-        <v>84.4412</v>
+        <v>84.441199999999995</v>
       </c>
       <c r="I35" s="6">
-        <v>27.5341</v>
+        <v>27.534099999999999</v>
       </c>
       <c r="J35" s="1">
         <v>4</v>
@@ -5439,7 +5443,7 @@
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row r="36" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5462,10 +5466,10 @@
         <v>176</v>
       </c>
       <c r="H36" s="6">
-        <v>83.275</v>
+        <v>83.275000000000006</v>
       </c>
       <c r="I36" s="6">
-        <v>27.6792</v>
+        <v>27.679200000000002</v>
       </c>
       <c r="J36" s="1">
         <v>5</v>
@@ -5487,7 +5491,7 @@
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row r="37" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5510,10 +5514,10 @@
         <v>180</v>
       </c>
       <c r="H37" s="6">
-        <v>83.472</v>
+        <v>83.471999999999994</v>
       </c>
       <c r="I37" s="6">
-        <v>27.5234</v>
+        <v>27.523399999999999</v>
       </c>
       <c r="J37" s="1">
         <v>4</v>
@@ -5535,7 +5539,7 @@
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row r="38" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5558,10 +5562,10 @@
         <v>183</v>
       </c>
       <c r="H38" s="6">
-        <v>83.4733</v>
+        <v>83.473299999999995</v>
       </c>
       <c r="I38" s="6">
-        <v>27.5164</v>
+        <v>27.516400000000001</v>
       </c>
       <c r="J38" s="1">
         <v>2</v>
@@ -5583,7 +5587,7 @@
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    <row r="39" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5606,10 +5610,10 @@
         <v>185</v>
       </c>
       <c r="H39" s="6">
-        <v>83.275</v>
+        <v>83.275000000000006</v>
       </c>
       <c r="I39" s="6">
-        <v>27.6792</v>
+        <v>27.679200000000002</v>
       </c>
       <c r="J39" s="1">
         <v>3</v>
@@ -5631,7 +5635,7 @@
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    <row r="40" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5654,10 +5658,10 @@
         <v>187</v>
       </c>
       <c r="H40" s="6">
-        <v>85.5219</v>
+        <v>85.521900000000002</v>
       </c>
       <c r="I40" s="6">
-        <v>27.717</v>
+        <v>27.716999999999999</v>
       </c>
       <c r="J40" s="1">
         <v>3</v>
@@ -5679,7 +5683,7 @@
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+    <row r="41" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5702,10 +5706,10 @@
         <v>190</v>
       </c>
       <c r="H41" s="6">
-        <v>85.5208</v>
+        <v>85.520799999999994</v>
       </c>
       <c r="I41" s="6">
-        <v>27.7123</v>
+        <v>27.712299999999999</v>
       </c>
       <c r="J41" s="1">
         <v>2</v>
@@ -5727,7 +5731,7 @@
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+    <row r="42" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5750,10 +5754,10 @@
         <v>193</v>
       </c>
       <c r="H42" s="6">
-        <v>85.9246</v>
+        <v>85.924599999999998</v>
       </c>
       <c r="I42" s="6">
-        <v>26.7328</v>
+        <v>26.732800000000001</v>
       </c>
       <c r="J42" s="1">
         <v>2</v>
@@ -5775,7 +5779,7 @@
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+    <row r="43" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5798,7 +5802,7 @@
         <v>196</v>
       </c>
       <c r="H43" s="6">
-        <v>84.5995</v>
+        <v>84.599500000000006</v>
       </c>
       <c r="I43" s="6">
         <v>27.6997</v>
@@ -5823,7 +5827,7 @@
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+    <row r="44" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5846,7 +5850,7 @@
         <v>199</v>
       </c>
       <c r="H44" s="6">
-        <v>85.4166</v>
+        <v>85.416600000000003</v>
       </c>
       <c r="I44" s="6">
         <v>28.0625</v>
@@ -5871,7 +5875,7 @@
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    <row r="45" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5894,7 +5898,7 @@
         <v>202</v>
       </c>
       <c r="H45" s="6">
-        <v>83.8731</v>
+        <v>83.873099999999994</v>
       </c>
       <c r="I45" s="6">
         <v>28.5306</v>
@@ -5919,7 +5923,7 @@
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    <row r="46" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -5945,7 +5949,7 @@
         <v>83.8767</v>
       </c>
       <c r="I46" s="6">
-        <v>28.8197</v>
+        <v>28.819700000000001</v>
       </c>
       <c r="J46" s="1">
         <v>5</v>
@@ -5967,7 +5971,7 @@
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+    <row r="47" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5990,7 +5994,7 @@
         <v>209</v>
       </c>
       <c r="H47" s="6">
-        <v>83.725</v>
+        <v>83.724999999999994</v>
       </c>
       <c r="I47" s="6">
         <v>28.7715</v>
@@ -6015,7 +6019,7 @@
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+    <row r="48" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6038,10 +6042,10 @@
         <v>212</v>
       </c>
       <c r="H48" s="6">
-        <v>83.8565</v>
+        <v>83.856499999999997</v>
       </c>
       <c r="I48" s="6">
-        <v>28.839</v>
+        <v>28.838999999999999</v>
       </c>
       <c r="J48" s="1">
         <v>2</v>
@@ -6063,7 +6067,7 @@
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    <row r="49" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6086,10 +6090,10 @@
         <v>215</v>
       </c>
       <c r="H49" s="6">
-        <v>84.0248</v>
+        <v>84.024799999999999</v>
       </c>
       <c r="I49" s="6">
-        <v>29.1718</v>
+        <v>29.171800000000001</v>
       </c>
       <c r="J49" s="1">
         <v>2</v>
@@ -6111,7 +6115,7 @@
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+    <row r="50" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6134,10 +6138,10 @@
         <v>217</v>
       </c>
       <c r="H50" s="6">
-        <v>83.7076</v>
+        <v>83.707599999999999</v>
       </c>
       <c r="I50" s="6">
-        <v>28.6917</v>
+        <v>28.691700000000001</v>
       </c>
       <c r="J50" s="1">
         <v>2</v>
@@ -6159,7 +6163,7 @@
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+    <row r="51" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6182,10 +6186,10 @@
         <v>220</v>
       </c>
       <c r="H51" s="6">
-        <v>82.1344</v>
+        <v>82.134399999999999</v>
       </c>
       <c r="I51" s="6">
-        <v>29.5295</v>
+        <v>29.529499999999999</v>
       </c>
       <c r="J51" s="1">
         <v>6</v>
@@ -6207,7 +6211,7 @@
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+    <row r="52" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6230,10 +6234,10 @@
         <v>223</v>
       </c>
       <c r="H52" s="6">
-        <v>82.1344</v>
+        <v>82.134399999999999</v>
       </c>
       <c r="I52" s="6">
-        <v>29.5295</v>
+        <v>29.529499999999999</v>
       </c>
       <c r="J52" s="1">
         <v>2</v>
@@ -6255,7 +6259,7 @@
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    <row r="53" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6278,10 +6282,10 @@
         <v>226</v>
       </c>
       <c r="H53" s="6">
-        <v>86.8183</v>
+        <v>86.818299999999994</v>
       </c>
       <c r="I53" s="6">
-        <v>27.9322</v>
+        <v>27.932200000000002</v>
       </c>
       <c r="J53" s="1">
         <v>8</v>
@@ -6303,7 +6307,7 @@
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+    <row r="54" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6326,7 +6330,7 @@
         <v>229</v>
       </c>
       <c r="H54" s="6">
-        <v>86.7212</v>
+        <v>86.721199999999996</v>
       </c>
       <c r="I54" s="6">
         <v>27.6861</v>
@@ -6351,7 +6355,7 @@
       <c r="U54" s="7"/>
       <c r="V54" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+    <row r="55" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6374,10 +6378,10 @@
         <v>231</v>
       </c>
       <c r="H55" s="6">
-        <v>86.715</v>
+        <v>86.715000000000003</v>
       </c>
       <c r="I55" s="6">
-        <v>27.8042</v>
+        <v>27.804200000000002</v>
       </c>
       <c r="J55" s="1">
         <v>4</v>
@@ -6399,7 +6403,7 @@
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+    <row r="56" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6422,7 +6426,7 @@
         <v>234</v>
       </c>
       <c r="H56" s="6">
-        <v>86.8636</v>
+        <v>86.863600000000005</v>
       </c>
       <c r="I56" s="6">
         <v>28.0046</v>
@@ -6447,7 +6451,7 @@
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+    <row r="57" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6470,10 +6474,10 @@
         <v>236</v>
       </c>
       <c r="H57" s="6">
-        <v>84.4164</v>
+        <v>84.416399999999996</v>
       </c>
       <c r="I57" s="6">
-        <v>27.9562</v>
+        <v>27.956199999999999</v>
       </c>
       <c r="J57" s="1">
         <v>4</v>
@@ -6495,7 +6499,7 @@
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+    <row r="58" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6518,10 +6522,10 @@
         <v>239</v>
       </c>
       <c r="H58" s="6">
-        <v>87.9267</v>
+        <v>87.926699999999997</v>
       </c>
       <c r="I58" s="6">
-        <v>26.9095</v>
+        <v>26.909500000000001</v>
       </c>
       <c r="J58" s="1">
         <v>3</v>
@@ -6543,7 +6547,7 @@
       <c r="U58" s="7"/>
       <c r="V58" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+    <row r="59" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -6566,10 +6570,10 @@
         <v>242</v>
       </c>
       <c r="H59" s="6">
-        <v>87.9762</v>
+        <v>87.976200000000006</v>
       </c>
       <c r="I59" s="6">
-        <v>26.9061</v>
+        <v>26.906099999999999</v>
       </c>
       <c r="J59" s="1">
         <v>2</v>
@@ -6591,7 +6595,7 @@
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+    <row r="60" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -6614,7 +6618,7 @@
         <v>244</v>
       </c>
       <c r="H60" s="6">
-        <v>81.2315</v>
+        <v>81.231499999999997</v>
       </c>
       <c r="I60" s="6">
         <v>28.6281</v>
@@ -6639,7 +6643,7 @@
       <c r="U60" s="7"/>
       <c r="V60" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+    <row r="61" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -6662,10 +6666,10 @@
         <v>247</v>
       </c>
       <c r="H61" s="6">
-        <v>85.5516</v>
+        <v>85.551599999999993</v>
       </c>
       <c r="I61" s="6">
-        <v>27.6183</v>
+        <v>27.618300000000001</v>
       </c>
       <c r="J61" s="1">
         <v>3</v>
@@ -6687,7 +6691,7 @@
       <c r="U61" s="7"/>
       <c r="V61" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+    <row r="62" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -6710,10 +6714,10 @@
         <v>249</v>
       </c>
       <c r="H62" s="6">
-        <v>84.6145</v>
+        <v>84.614500000000007</v>
       </c>
       <c r="I62" s="6">
-        <v>28.1025</v>
+        <v>28.102499999999999</v>
       </c>
       <c r="J62" s="1">
         <v>2</v>
@@ -6735,7 +6739,7 @@
       <c r="U62" s="7"/>
       <c r="V62" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+    <row r="63" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -6758,10 +6762,10 @@
         <v>251</v>
       </c>
       <c r="H63" s="6">
-        <v>87.1547</v>
+        <v>87.154700000000005</v>
       </c>
       <c r="I63" s="6">
-        <v>26.7294</v>
+        <v>26.729399999999998</v>
       </c>
       <c r="J63" s="1">
         <v>2</v>
@@ -6783,7 +6787,7 @@
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+    <row r="64" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -6806,7 +6810,7 @@
         <v>254</v>
       </c>
       <c r="H64" s="6">
-        <v>83.803</v>
+        <v>83.802999999999997</v>
       </c>
       <c r="I64" s="6">
         <v>28.3858</v>
@@ -6831,7 +6835,7 @@
       <c r="U64" s="7"/>
       <c r="V64" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+    <row r="65" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -6854,10 +6858,10 @@
         <v>256</v>
       </c>
       <c r="H65" s="6">
-        <v>87.0059</v>
+        <v>87.005899999999997</v>
       </c>
       <c r="I65" s="6">
-        <v>26.6412</v>
+        <v>26.641200000000001</v>
       </c>
       <c r="J65" s="1">
         <v>7</v>
@@ -6879,7 +6883,7 @@
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+    <row r="66" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -6902,10 +6906,10 @@
         <v>259</v>
       </c>
       <c r="H66" s="6">
-        <v>87.1056</v>
+        <v>87.105599999999995</v>
       </c>
       <c r="I66" s="6">
-        <v>26.6352</v>
+        <v>26.635200000000001</v>
       </c>
       <c r="J66" s="1">
         <v>2</v>
@@ -6927,7 +6931,7 @@
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+    <row r="67" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -6950,10 +6954,10 @@
         <v>262</v>
       </c>
       <c r="H67" s="6">
-        <v>81.2334</v>
+        <v>81.233400000000003</v>
       </c>
       <c r="I67" s="6">
-        <v>28.5402</v>
+        <v>28.540199999999999</v>
       </c>
       <c r="J67" s="1">
         <v>6</v>
@@ -6975,7 +6979,7 @@
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+    <row r="68" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -6998,7 +7002,7 @@
         <v>265</v>
       </c>
       <c r="H68" s="6">
-        <v>87.2176</v>
+        <v>87.217600000000004</v>
       </c>
       <c r="I68" s="6">
         <v>27.7378</v>
@@ -7023,7 +7027,7 @@
       <c r="U68" s="7"/>
       <c r="V68" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+    <row r="69" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7046,10 +7050,10 @@
         <v>268</v>
       </c>
       <c r="H69" s="6">
-        <v>84.9384</v>
+        <v>84.938400000000001</v>
       </c>
       <c r="I69" s="6">
-        <v>27.1484</v>
+        <v>27.148399999999999</v>
       </c>
       <c r="J69" s="1">
         <v>2</v>
@@ -7071,7 +7075,7 @@
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+    <row r="70" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -7094,7 +7098,7 @@
         <v>270</v>
       </c>
       <c r="H70" s="6">
-        <v>82.8746</v>
+        <v>82.874600000000001</v>
       </c>
       <c r="I70" s="6">
         <v>29.2501</v>
@@ -7119,7 +7123,7 @@
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+    <row r="71" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -7142,7 +7146,7 @@
         <v>273</v>
       </c>
       <c r="H71" s="6">
-        <v>83.6933</v>
+        <v>83.693299999999994</v>
       </c>
       <c r="I71" s="6">
         <v>28.4008</v>
@@ -7167,7 +7171,7 @@
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+    <row r="72" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>277</v>
       </c>
       <c r="H72" s="6">
-        <v>83.545</v>
+        <v>83.545000000000002</v>
       </c>
       <c r="I72" s="6">
         <v>27.8658</v>
@@ -7215,7 +7219,7 @@
       <c r="U72" s="7"/>
       <c r="V72" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+    <row r="73" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -7238,10 +7242,10 @@
         <v>280</v>
       </c>
       <c r="H73" s="6">
-        <v>83.861</v>
+        <v>83.861000000000004</v>
       </c>
       <c r="I73" s="6">
-        <v>27.8623</v>
+        <v>27.862300000000001</v>
       </c>
       <c r="J73" s="1">
         <v>3</v>
@@ -7263,7 +7267,7 @@
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+    <row r="74" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -7286,7 +7290,7 @@
         <v>282</v>
       </c>
       <c r="H74" s="6">
-        <v>83.5404</v>
+        <v>83.540400000000005</v>
       </c>
       <c r="I74" s="6">
         <v>27.8703</v>
@@ -7311,7 +7315,7 @@
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+    <row r="75" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -7337,7 +7341,7 @@
         <v>83.8108</v>
       </c>
       <c r="I75" s="6">
-        <v>28.6903</v>
+        <v>28.690300000000001</v>
       </c>
       <c r="J75" s="1">
         <v>8</v>
@@ -7359,7 +7363,7 @@
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+    <row r="76" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -7383,7 +7387,7 @@
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+    <row r="77" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -7407,7 +7411,7 @@
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+    <row r="78" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -7431,7 +7435,7 @@
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+    <row r="79" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -7455,7 +7459,7 @@
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+    <row r="80" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -7479,7 +7483,7 @@
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+    <row r="81" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -7503,7 +7507,7 @@
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+    <row r="82" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -7527,7 +7531,7 @@
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+    <row r="83" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -7551,7 +7555,7 @@
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+    <row r="84" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -7575,7 +7579,7 @@
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+    <row r="85" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -7599,7 +7603,7 @@
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+    <row r="86" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -7623,7 +7627,7 @@
       <c r="U86" s="7"/>
       <c r="V86" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+    <row r="87" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -7647,7 +7651,7 @@
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+    <row r="88" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -7671,7 +7675,7 @@
       <c r="U88" s="7"/>
       <c r="V88" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+    <row r="89" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -7695,7 +7699,7 @@
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+    <row r="90" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -7719,7 +7723,7 @@
       <c r="U90" s="7"/>
       <c r="V90" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+    <row r="91" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -7743,7 +7747,7 @@
       <c r="U91" s="7"/>
       <c r="V91" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+    <row r="92" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -7767,7 +7771,7 @@
       <c r="U92" s="7"/>
       <c r="V92" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+    <row r="93" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -7791,7 +7795,7 @@
       <c r="U93" s="7"/>
       <c r="V93" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+    <row r="94" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -7815,7 +7819,7 @@
       <c r="U94" s="7"/>
       <c r="V94" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+    <row r="95" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -7839,7 +7843,7 @@
       <c r="U95" s="7"/>
       <c r="V95" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+    <row r="96" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -7863,7 +7867,7 @@
       <c r="U96" s="7"/>
       <c r="V96" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+    <row r="97" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -7887,7 +7891,7 @@
       <c r="U97" s="7"/>
       <c r="V97" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+    <row r="98" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -7911,7 +7915,7 @@
       <c r="U98" s="7"/>
       <c r="V98" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+    <row r="99" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -7935,7 +7939,7 @@
       <c r="U99" s="7"/>
       <c r="V99" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+    <row r="100" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -7959,7 +7963,7 @@
       <c r="U100" s="7"/>
       <c r="V100" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+    <row r="101" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -7983,7 +7987,7 @@
       <c r="U101" s="7"/>
       <c r="V101" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+    <row r="102" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -8007,7 +8011,7 @@
       <c r="U102" s="7"/>
       <c r="V102" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+    <row r="103" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -8031,7 +8035,7 @@
       <c r="U103" s="7"/>
       <c r="V103" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+    <row r="104" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -8055,7 +8059,7 @@
       <c r="U104" s="7"/>
       <c r="V104" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+    <row r="105" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -8079,7 +8083,7 @@
       <c r="U105" s="7"/>
       <c r="V105" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+    <row r="106" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -8103,7 +8107,7 @@
       <c r="U106" s="7"/>
       <c r="V106" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+    <row r="107" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -8127,7 +8131,7 @@
       <c r="U107" s="7"/>
       <c r="V107" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+    <row r="108" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -8151,7 +8155,7 @@
       <c r="U108" s="7"/>
       <c r="V108" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+    <row r="109" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -8175,7 +8179,7 @@
       <c r="U109" s="7"/>
       <c r="V109" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+    <row r="110" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -8199,7 +8203,7 @@
       <c r="U110" s="7"/>
       <c r="V110" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+    <row r="111" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -8223,7 +8227,7 @@
       <c r="U111" s="7"/>
       <c r="V111" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
+    <row r="112" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -8247,7 +8251,7 @@
       <c r="U112" s="7"/>
       <c r="V112" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+    <row r="113" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -8271,7 +8275,7 @@
       <c r="U113" s="7"/>
       <c r="V113" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
+    <row r="114" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -8295,7 +8299,7 @@
       <c r="U114" s="7"/>
       <c r="V114" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+    <row r="115" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -8319,7 +8323,7 @@
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
+    <row r="116" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -8343,7 +8347,7 @@
       <c r="U116" s="2"/>
       <c r="V116" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+    <row r="117" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -8367,7 +8371,7 @@
       <c r="U117" s="2"/>
       <c r="V117" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+    <row r="118" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -8391,7 +8395,7 @@
       <c r="U118" s="2"/>
       <c r="V118" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+    <row r="119" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -8415,7 +8419,7 @@
       <c r="U119" s="2"/>
       <c r="V119" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+    <row r="120" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -8439,7 +8443,7 @@
       <c r="U120" s="2"/>
       <c r="V120" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+    <row r="121" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -8463,7 +8467,7 @@
       <c r="U121" s="2"/>
       <c r="V121" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
+    <row r="122" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -8487,7 +8491,7 @@
       <c r="U122" s="2"/>
       <c r="V122" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
+    <row r="123" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -8511,7 +8515,7 @@
       <c r="U123" s="7"/>
       <c r="V123" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
+    <row r="124" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -8535,7 +8539,7 @@
       <c r="U124" s="7"/>
       <c r="V124" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
+    <row r="125" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -8559,7 +8563,7 @@
       <c r="U125" s="7"/>
       <c r="V125" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
+    <row r="126" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -8583,7 +8587,7 @@
       <c r="U126" s="7"/>
       <c r="V126" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
+    <row r="127" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -8607,7 +8611,7 @@
       <c r="U127" s="7"/>
       <c r="V127" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
+    <row r="128" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -8631,7 +8635,7 @@
       <c r="U128" s="7"/>
       <c r="V128" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
+    <row r="129" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -8655,7 +8659,7 @@
       <c r="U129" s="7"/>
       <c r="V129" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
+    <row r="130" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -8679,7 +8683,7 @@
       <c r="U130" s="7"/>
       <c r="V130" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
+    <row r="131" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -8703,7 +8707,7 @@
       <c r="U131" s="7"/>
       <c r="V131" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
+    <row r="132" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -8727,7 +8731,7 @@
       <c r="U132" s="7"/>
       <c r="V132" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
+    <row r="133" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -8751,7 +8755,7 @@
       <c r="U133" s="7"/>
       <c r="V133" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
+    <row r="134" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -8775,7 +8779,7 @@
       <c r="U134" s="7"/>
       <c r="V134" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
+    <row r="135" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -8799,7 +8803,7 @@
       <c r="U135" s="7"/>
       <c r="V135" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
+    <row r="136" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -8823,7 +8827,7 @@
       <c r="U136" s="7"/>
       <c r="V136" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
+    <row r="137" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -8847,7 +8851,7 @@
       <c r="U137" s="7"/>
       <c r="V137" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
+    <row r="138" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -8871,7 +8875,7 @@
       <c r="U138" s="7"/>
       <c r="V138" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
+    <row r="139" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -8895,7 +8899,7 @@
       <c r="U139" s="7"/>
       <c r="V139" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
+    <row r="140" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -8919,7 +8923,7 @@
       <c r="U140" s="7"/>
       <c r="V140" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
+    <row r="141" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -8943,7 +8947,7 @@
       <c r="U141" s="7"/>
       <c r="V141" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
+    <row r="142" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -8967,7 +8971,7 @@
       <c r="U142" s="7"/>
       <c r="V142" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
+    <row r="143" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -8991,7 +8995,7 @@
       <c r="U143" s="7"/>
       <c r="V143" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
+    <row r="144" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -9015,7 +9019,7 @@
       <c r="U144" s="7"/>
       <c r="V144" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
+    <row r="145" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -9039,7 +9043,7 @@
       <c r="U145" s="7"/>
       <c r="V145" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
+    <row r="146" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -9063,7 +9067,7 @@
       <c r="U146" s="7"/>
       <c r="V146" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
+    <row r="147" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -9087,7 +9091,7 @@
       <c r="U147" s="7"/>
       <c r="V147" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
+    <row r="148" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -9111,7 +9115,7 @@
       <c r="U148" s="7"/>
       <c r="V148" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
+    <row r="149" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -9135,7 +9139,7 @@
       <c r="U149" s="7"/>
       <c r="V149" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
+    <row r="150" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -9159,7 +9163,7 @@
       <c r="U150" s="7"/>
       <c r="V150" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
+    <row r="151" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -9183,7 +9187,7 @@
       <c r="U151" s="7"/>
       <c r="V151" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
+    <row r="152" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -9207,7 +9211,7 @@
       <c r="U152" s="7"/>
       <c r="V152" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
+    <row r="153" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -9231,7 +9235,7 @@
       <c r="U153" s="7"/>
       <c r="V153" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
+    <row r="154" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -9255,7 +9259,7 @@
       <c r="U154" s="7"/>
       <c r="V154" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
+    <row r="155" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -9279,7 +9283,7 @@
       <c r="U155" s="7"/>
       <c r="V155" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
+    <row r="156" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -9303,7 +9307,7 @@
       <c r="U156" s="7"/>
       <c r="V156" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
+    <row r="157" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -9327,7 +9331,7 @@
       <c r="U157" s="7"/>
       <c r="V157" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
+    <row r="158" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -9351,7 +9355,7 @@
       <c r="U158" s="7"/>
       <c r="V158" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
+    <row r="159" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -9375,7 +9379,7 @@
       <c r="U159" s="7"/>
       <c r="V159" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
+    <row r="160" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -9399,7 +9403,7 @@
       <c r="U160" s="7"/>
       <c r="V160" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
+    <row r="161" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -9423,7 +9427,7 @@
       <c r="U161" s="7"/>
       <c r="V161" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
+    <row r="162" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -9447,7 +9451,7 @@
       <c r="U162" s="7"/>
       <c r="V162" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
+    <row r="163" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -9471,7 +9475,7 @@
       <c r="U163" s="7"/>
       <c r="V163" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
+    <row r="164" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -9495,7 +9499,7 @@
       <c r="U164" s="7"/>
       <c r="V164" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
+    <row r="165" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -9519,7 +9523,7 @@
       <c r="U165" s="7"/>
       <c r="V165" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
+    <row r="166" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -9543,7 +9547,7 @@
       <c r="U166" s="7"/>
       <c r="V166" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
+    <row r="167" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -9567,7 +9571,7 @@
       <c r="U167" s="7"/>
       <c r="V167" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
+    <row r="168" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -9591,7 +9595,7 @@
       <c r="U168" s="7"/>
       <c r="V168" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
+    <row r="169" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -9615,7 +9619,7 @@
       <c r="U169" s="7"/>
       <c r="V169" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
+    <row r="170" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -9639,7 +9643,7 @@
       <c r="U170" s="7"/>
       <c r="V170" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
+    <row r="171" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -9663,7 +9667,7 @@
       <c r="U171" s="7"/>
       <c r="V171" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
+    <row r="172" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -9687,7 +9691,7 @@
       <c r="U172" s="7"/>
       <c r="V172" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
+    <row r="173" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -9711,7 +9715,7 @@
       <c r="U173" s="7"/>
       <c r="V173" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
+    <row r="174" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -9735,7 +9739,7 @@
       <c r="U174" s="7"/>
       <c r="V174" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
+    <row r="175" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -9759,7 +9763,7 @@
       <c r="U175" s="7"/>
       <c r="V175" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
+    <row r="176" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -9783,7 +9787,7 @@
       <c r="U176" s="7"/>
       <c r="V176" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
+    <row r="177" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -9807,7 +9811,7 @@
       <c r="U177" s="7"/>
       <c r="V177" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
+    <row r="178" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -9831,7 +9835,7 @@
       <c r="U178" s="7"/>
       <c r="V178" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
+    <row r="179" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -9855,7 +9859,7 @@
       <c r="U179" s="7"/>
       <c r="V179" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
+    <row r="180" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -9879,7 +9883,7 @@
       <c r="U180" s="7"/>
       <c r="V180" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
+    <row r="181" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -9903,7 +9907,7 @@
       <c r="U181" s="7"/>
       <c r="V181" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
+    <row r="182" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -9927,7 +9931,7 @@
       <c r="U182" s="7"/>
       <c r="V182" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
+    <row r="183" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -9951,7 +9955,7 @@
       <c r="U183" s="7"/>
       <c r="V183" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
+    <row r="184" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -9975,7 +9979,7 @@
       <c r="U184" s="7"/>
       <c r="V184" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
+    <row r="185" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -9999,7 +10003,7 @@
       <c r="U185" s="7"/>
       <c r="V185" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
+    <row r="186" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -10023,7 +10027,7 @@
       <c r="U186" s="7"/>
       <c r="V186" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
+    <row r="187" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -10047,7 +10051,7 @@
       <c r="U187" s="7"/>
       <c r="V187" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
+    <row r="188" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -10071,7 +10075,7 @@
       <c r="U188" s="7"/>
       <c r="V188" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
+    <row r="189" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -10095,7 +10099,7 @@
       <c r="U189" s="7"/>
       <c r="V189" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
+    <row r="190" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -10119,7 +10123,7 @@
       <c r="U190" s="7"/>
       <c r="V190" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
+    <row r="191" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -10143,7 +10147,7 @@
       <c r="U191" s="7"/>
       <c r="V191" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
+    <row r="192" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -10167,7 +10171,7 @@
       <c r="U192" s="7"/>
       <c r="V192" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
+    <row r="193" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -10191,7 +10195,7 @@
       <c r="U193" s="7"/>
       <c r="V193" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
+    <row r="194" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -10215,7 +10219,7 @@
       <c r="U194" s="7"/>
       <c r="V194" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
+    <row r="195" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -10239,7 +10243,7 @@
       <c r="U195" s="7"/>
       <c r="V195" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
+    <row r="196" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -10263,7 +10267,7 @@
       <c r="U196" s="7"/>
       <c r="V196" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
+    <row r="197" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -10287,7 +10291,7 @@
       <c r="U197" s="7"/>
       <c r="V197" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
+    <row r="198" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -10311,7 +10315,7 @@
       <c r="U198" s="7"/>
       <c r="V198" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
+    <row r="199" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -10335,7 +10339,7 @@
       <c r="U199" s="7"/>
       <c r="V199" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
+    <row r="200" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -10359,7 +10363,7 @@
       <c r="U200" s="7"/>
       <c r="V200" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
+    <row r="201" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -10383,7 +10387,7 @@
       <c r="U201" s="7"/>
       <c r="V201" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
+    <row r="202" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -10407,7 +10411,7 @@
       <c r="U202" s="7"/>
       <c r="V202" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
+    <row r="203" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -10431,7 +10435,7 @@
       <c r="U203" s="7"/>
       <c r="V203" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
+    <row r="204" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -10455,7 +10459,7 @@
       <c r="U204" s="7"/>
       <c r="V204" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
+    <row r="205" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -10479,7 +10483,7 @@
       <c r="U205" s="7"/>
       <c r="V205" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
+    <row r="206" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -10503,7 +10507,7 @@
       <c r="U206" s="7"/>
       <c r="V206" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
+    <row r="207" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -10527,7 +10531,7 @@
       <c r="U207" s="7"/>
       <c r="V207" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
+    <row r="208" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -10551,7 +10555,7 @@
       <c r="U208" s="7"/>
       <c r="V208" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
+    <row r="209" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -10575,7 +10579,7 @@
       <c r="U209" s="7"/>
       <c r="V209" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
+    <row r="210" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -10599,7 +10603,7 @@
       <c r="U210" s="7"/>
       <c r="V210" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
+    <row r="211" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -10623,7 +10627,7 @@
       <c r="U211" s="7"/>
       <c r="V211" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
+    <row r="212" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -10647,7 +10651,7 @@
       <c r="U212" s="7"/>
       <c r="V212" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25">
+    <row r="213" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -10671,7 +10675,7 @@
       <c r="U213" s="7"/>
       <c r="V213" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25">
+    <row r="214" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -10695,7 +10699,7 @@
       <c r="U214" s="7"/>
       <c r="V214" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25">
+    <row r="215" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -10735,15 +10739,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="28.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10763,7 +10767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -10783,7 +10787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -10803,7 +10807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -10823,7 +10827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -10843,7 +10847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -10863,7 +10867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -10883,7 +10887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -10903,7 +10907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -10923,7 +10927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -10943,7 +10947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>60</v>
       </c>
@@ -10963,7 +10967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>61</v>
       </c>
@@ -10983,7 +10987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>62</v>
       </c>
@@ -11003,7 +11007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>63</v>
       </c>
@@ -11023,7 +11027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>64</v>
       </c>
@@ -11043,7 +11047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>116</v>
       </c>
@@ -11063,7 +11067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>10</v>
       </c>
@@ -11083,7 +11087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>11</v>
       </c>
@@ -11103,7 +11107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>12</v>
       </c>
@@ -11123,7 +11127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>13</v>
       </c>
@@ -11143,7 +11147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>14</v>
       </c>
@@ -11163,7 +11167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>15</v>
       </c>
@@ -11183,7 +11187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>16</v>
       </c>
@@ -11203,7 +11207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>17</v>
       </c>
@@ -11223,7 +11227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>18</v>
       </c>
@@ -11243,7 +11247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row r="26" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>19</v>
       </c>
@@ -11263,7 +11267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>65</v>
       </c>
@@ -11283,7 +11287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>66</v>
       </c>
@@ -11303,7 +11307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row r="29" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>67</v>
       </c>
@@ -11323,7 +11327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row r="30" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>68</v>
       </c>
@@ -11343,7 +11347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>69</v>
       </c>
@@ -11363,7 +11367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row r="32" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>70</v>
       </c>
@@ -11383,7 +11387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row r="33" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>71</v>
       </c>
@@ -11403,7 +11407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row r="34" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>72</v>
       </c>
@@ -11423,7 +11427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row r="35" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>117</v>
       </c>
@@ -11443,7 +11447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row r="36" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>20</v>
       </c>
@@ -11463,7 +11467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row r="37" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>21</v>
       </c>
@@ -11483,7 +11487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row r="38" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>22</v>
       </c>
@@ -11503,7 +11507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    <row r="39" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>23</v>
       </c>
@@ -11523,7 +11527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    <row r="40" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>24</v>
       </c>
@@ -11543,7 +11547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+    <row r="41" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>25</v>
       </c>
@@ -11563,7 +11567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+    <row r="42" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>26</v>
       </c>
@@ -11583,7 +11587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+    <row r="43" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>27</v>
       </c>
@@ -11603,7 +11607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+    <row r="44" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>77</v>
       </c>
@@ -11623,7 +11627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    <row r="45" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>78</v>
       </c>
@@ -11643,7 +11647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    <row r="46" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>79</v>
       </c>
@@ -11663,7 +11667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+    <row r="47" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>80</v>
       </c>
@@ -11683,7 +11687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+    <row r="48" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>179</v>
       </c>
@@ -11703,7 +11707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+    <row r="49" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>180</v>
       </c>
@@ -11723,7 +11727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+    <row r="50" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>181</v>
       </c>
@@ -11743,7 +11747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+    <row r="51" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>182</v>
       </c>
@@ -11763,7 +11767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+    <row r="52" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>28</v>
       </c>
@@ -11783,7 +11787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+    <row r="53" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>29</v>
       </c>
@@ -11803,7 +11807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+    <row r="54" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>30</v>
       </c>
@@ -11823,7 +11827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+    <row r="55" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>31</v>
       </c>
@@ -11843,7 +11847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+    <row r="56" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>32</v>
       </c>
@@ -11863,7 +11867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+    <row r="57" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>33</v>
       </c>
@@ -11883,7 +11887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+    <row r="58" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>73</v>
       </c>
@@ -11903,7 +11907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+    <row r="59" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>74</v>
       </c>
@@ -11923,7 +11927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+    <row r="60" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>75</v>
       </c>
@@ -11943,7 +11947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+    <row r="61" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>76</v>
       </c>
@@ -11963,7 +11967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+    <row r="62" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>175</v>
       </c>
@@ -11983,7 +11987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+    <row r="63" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>176</v>
       </c>
@@ -12003,7 +12007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+    <row r="64" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>177</v>
       </c>
@@ -12023,7 +12027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+    <row r="65" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>178</v>
       </c>
@@ -12043,7 +12047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+    <row r="66" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>34</v>
       </c>
@@ -12063,7 +12067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+    <row r="67" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>35</v>
       </c>
@@ -12083,7 +12087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+    <row r="68" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>36</v>
       </c>
@@ -12103,7 +12107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+    <row r="69" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>37</v>
       </c>
@@ -12123,7 +12127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+    <row r="70" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>38</v>
       </c>
@@ -12143,7 +12147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+    <row r="71" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>81</v>
       </c>
@@ -12163,7 +12167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+    <row r="72" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>82</v>
       </c>
@@ -12183,7 +12187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+    <row r="73" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>83</v>
       </c>
@@ -12203,7 +12207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+    <row r="74" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>84</v>
       </c>
@@ -12223,7 +12227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+    <row r="75" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>195</v>
       </c>
@@ -12243,7 +12247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+    <row r="76" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>196</v>
       </c>
@@ -12263,7 +12267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+    <row r="77" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>197</v>
       </c>
@@ -12283,7 +12287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+    <row r="78" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>198</v>
       </c>
@@ -12303,7 +12307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+    <row r="79" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>39</v>
       </c>
@@ -12323,7 +12327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+    <row r="80" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>40</v>
       </c>
@@ -12343,7 +12347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+    <row r="81" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>41</v>
       </c>
@@ -12363,7 +12367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+    <row r="82" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>42</v>
       </c>
@@ -12383,7 +12387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+    <row r="83" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>43</v>
       </c>
@@ -12403,7 +12407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+    <row r="84" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>136</v>
       </c>
@@ -12423,7 +12427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+    <row r="85" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>191</v>
       </c>
@@ -12443,7 +12447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+    <row r="86" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>192</v>
       </c>
@@ -12463,7 +12467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+    <row r="87" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>193</v>
       </c>
@@ -12483,7 +12487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+    <row r="88" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>194</v>
       </c>
@@ -12503,7 +12507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+    <row r="89" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>44</v>
       </c>
@@ -12523,7 +12527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+    <row r="90" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>45</v>
       </c>
@@ -12543,7 +12547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+    <row r="91" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>46</v>
       </c>
@@ -12563,7 +12567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+    <row r="92" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>47</v>
       </c>
@@ -12583,7 +12587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+    <row r="93" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>48</v>
       </c>
@@ -12603,7 +12607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+    <row r="94" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>49</v>
       </c>
@@ -12623,7 +12627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+    <row r="95" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>85</v>
       </c>
@@ -12643,7 +12647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+    <row r="96" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>86</v>
       </c>
@@ -12663,7 +12667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+    <row r="97" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>87</v>
       </c>
@@ -12683,7 +12687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+    <row r="98" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>88</v>
       </c>
@@ -12703,7 +12707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+    <row r="99" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>89</v>
       </c>
@@ -12723,7 +12727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+    <row r="100" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>187</v>
       </c>
@@ -12743,7 +12747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+    <row r="101" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>188</v>
       </c>
@@ -12763,7 +12767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+    <row r="102" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>189</v>
       </c>
@@ -12783,7 +12787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+    <row r="103" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>190</v>
       </c>
@@ -12803,7 +12807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+    <row r="104" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>199</v>
       </c>
@@ -12823,7 +12827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+    <row r="105" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>200</v>
       </c>
@@ -12843,7 +12847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+    <row r="106" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>50</v>
       </c>
@@ -12863,7 +12867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+    <row r="107" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>51</v>
       </c>
@@ -12883,7 +12887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+    <row r="108" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>52</v>
       </c>
@@ -12903,7 +12907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+    <row r="109" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>53</v>
       </c>
@@ -12923,7 +12927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+    <row r="110" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>54</v>
       </c>
@@ -12943,7 +12947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+    <row r="111" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>90</v>
       </c>
@@ -12963,7 +12967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
+    <row r="112" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>91</v>
       </c>
@@ -12983,7 +12987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+    <row r="113" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>92</v>
       </c>
@@ -13003,7 +13007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
+    <row r="114" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>93</v>
       </c>
@@ -13023,7 +13027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+    <row r="115" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>183</v>
       </c>
@@ -13043,7 +13047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
+    <row r="116" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>184</v>
       </c>
@@ -13063,7 +13067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+    <row r="117" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>185</v>
       </c>
@@ -13083,7 +13087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+    <row r="118" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>186</v>
       </c>
@@ -13103,7 +13107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+    <row r="119" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>55</v>
       </c>
@@ -13123,7 +13127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+    <row r="120" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>56</v>
       </c>
@@ -13143,7 +13147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+    <row r="121" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>57</v>
       </c>
@@ -13163,7 +13167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
+    <row r="122" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>58</v>
       </c>
@@ -13183,7 +13187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
+    <row r="123" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>59</v>
       </c>
@@ -13203,7 +13207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
+    <row r="124" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>94</v>
       </c>
@@ -13223,7 +13227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
+    <row r="125" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>95</v>
       </c>
@@ -13243,7 +13247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
+    <row r="126" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>96</v>
       </c>
@@ -13263,7 +13267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
+    <row r="127" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>97</v>
       </c>
@@ -13283,7 +13287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
+    <row r="128" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>98</v>
       </c>
@@ -13303,7 +13307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
+    <row r="129" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>99</v>
       </c>
@@ -13323,7 +13327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
+    <row r="130" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>100</v>
       </c>
@@ -13343,7 +13347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
+    <row r="131" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>101</v>
       </c>
@@ -13363,7 +13367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
+    <row r="132" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>102</v>
       </c>
@@ -13383,7 +13387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
+    <row r="133" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>103</v>
       </c>
@@ -13403,7 +13407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
+    <row r="134" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>104</v>
       </c>
@@ -13423,7 +13427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
+    <row r="135" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>105</v>
       </c>
@@ -13443,7 +13447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
+    <row r="136" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>106</v>
       </c>
@@ -13463,7 +13467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
+    <row r="137" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>107</v>
       </c>
@@ -13483,7 +13487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
+    <row r="138" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>108</v>
       </c>
@@ -13503,7 +13507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
+    <row r="139" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>109</v>
       </c>
@@ -13523,7 +13527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
+    <row r="140" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>110</v>
       </c>
@@ -13543,7 +13547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
+    <row r="141" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>111</v>
       </c>
@@ -13563,7 +13567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
+    <row r="142" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>170</v>
       </c>
@@ -13583,7 +13587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
+    <row r="143" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>171</v>
       </c>
@@ -13603,7 +13607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
+    <row r="144" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>172</v>
       </c>
@@ -13623,7 +13627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
+    <row r="145" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>173</v>
       </c>
@@ -13643,7 +13647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
+    <row r="146" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>174</v>
       </c>
@@ -13663,7 +13667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
+    <row r="147" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>112</v>
       </c>
@@ -13683,7 +13687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
+    <row r="148" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>113</v>
       </c>
@@ -13703,7 +13707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
+    <row r="149" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>114</v>
       </c>
@@ -13723,7 +13727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
+    <row r="150" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>115</v>
       </c>
@@ -13743,7 +13747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
+    <row r="151" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>118</v>
       </c>
@@ -13763,7 +13767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
+    <row r="152" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>119</v>
       </c>
@@ -13783,7 +13787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
+    <row r="153" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>120</v>
       </c>
@@ -13803,7 +13807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
+    <row r="154" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>121</v>
       </c>
@@ -13823,7 +13827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
+    <row r="155" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>122</v>
       </c>
@@ -13843,7 +13847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
+    <row r="156" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>123</v>
       </c>
@@ -13863,7 +13867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
+    <row r="157" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>124</v>
       </c>
@@ -13883,7 +13887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
+    <row r="158" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>125</v>
       </c>
@@ -13903,7 +13907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
+    <row r="159" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>126</v>
       </c>
@@ -13923,7 +13927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
+    <row r="160" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>127</v>
       </c>
@@ -13943,7 +13947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
+    <row r="161" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>128</v>
       </c>
@@ -13963,7 +13967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
+    <row r="162" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>129</v>
       </c>
@@ -13983,7 +13987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
+    <row r="163" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>130</v>
       </c>
@@ -14003,7 +14007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
+    <row r="164" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>131</v>
       </c>
@@ -14023,7 +14027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
+    <row r="165" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>132</v>
       </c>
@@ -14043,7 +14047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
+    <row r="166" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>133</v>
       </c>
@@ -14063,7 +14067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
+    <row r="167" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>134</v>
       </c>
@@ -14083,7 +14087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
+    <row r="168" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>135</v>
       </c>
@@ -14103,7 +14107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
+    <row r="169" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>137</v>
       </c>
@@ -14123,7 +14127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
+    <row r="170" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>138</v>
       </c>
@@ -14143,7 +14147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
+    <row r="171" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>139</v>
       </c>
@@ -14163,7 +14167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
+    <row r="172" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>140</v>
       </c>
@@ -14183,7 +14187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
+    <row r="173" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>141</v>
       </c>
@@ -14203,7 +14207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
+    <row r="174" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>142</v>
       </c>
@@ -14223,7 +14227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
+    <row r="175" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>143</v>
       </c>
@@ -14243,7 +14247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
+    <row r="176" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>144</v>
       </c>
@@ -14263,7 +14267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
+    <row r="177" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>145</v>
       </c>
@@ -14283,7 +14287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
+    <row r="178" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>146</v>
       </c>
@@ -14303,7 +14307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
+    <row r="179" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>147</v>
       </c>
@@ -14323,7 +14327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
+    <row r="180" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>148</v>
       </c>
@@ -14343,7 +14347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
+    <row r="181" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>149</v>
       </c>
@@ -14363,7 +14367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
+    <row r="182" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>150</v>
       </c>
@@ -14383,7 +14387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
+    <row r="183" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>151</v>
       </c>
@@ -14403,7 +14407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
+    <row r="184" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>152</v>
       </c>
@@ -14423,7 +14427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
+    <row r="185" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>153</v>
       </c>
@@ -14443,7 +14447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
+    <row r="186" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>154</v>
       </c>
@@ -14463,7 +14467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
+    <row r="187" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>155</v>
       </c>
@@ -14483,7 +14487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
+    <row r="188" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>156</v>
       </c>
@@ -14503,7 +14507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
+    <row r="189" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>157</v>
       </c>
@@ -14523,7 +14527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
+    <row r="190" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>158</v>
       </c>
@@ -14543,7 +14547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
+    <row r="191" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>159</v>
       </c>
@@ -14563,7 +14567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
+    <row r="192" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>160</v>
       </c>
@@ -14583,7 +14587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
+    <row r="193" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>161</v>
       </c>
@@ -14603,7 +14607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
+    <row r="194" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>162</v>
       </c>
@@ -14623,7 +14627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
+    <row r="195" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>163</v>
       </c>
@@ -14643,7 +14647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
+    <row r="196" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>164</v>
       </c>
@@ -14663,7 +14667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
+    <row r="197" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>165</v>
       </c>
@@ -14683,7 +14687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
+    <row r="198" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>166</v>
       </c>
@@ -14703,7 +14707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
+    <row r="199" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>167</v>
       </c>
@@ -14723,7 +14727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
+    <row r="200" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>168</v>
       </c>
@@ -14743,7 +14747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
+    <row r="201" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>169</v>
       </c>
